--- a/DOM_Banner/output/dept_banner/Stephen Scholand_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Stephen Scholand_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,520 +360,246 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Stephen J. Scholand, Beatriz P. Quiambao, Charles E. Rupprecht</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281250537</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Time to Revise the WHO Categories for Severe Rabies Virus Exposures–Category IV?</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5020243647", "https://openalex.org/A5060243025", "https://openalex.org/A5012181714"), au_display_name = c("Stephen J. Scholand", "Beatriz P. Quiambao", "Charles E. Rupprecht"), au_orcid = c("https://orcid.org/0000-0003-1196-6735", "https://orcid.org/0000-0003-2916-3199", "https://orcid.org/0000-0002-8010-0743"), author_position = c("first", "middle", "last"), au_affiliation_raw = c("College of Medicine, University of Arizona, Tucson, AZ 85724, USA", "Research Institute for Tropical Medicine, Alabang, Muntinlupa City 1781, Metro Manila, Philippines", 
-"LYSSA LLC, Atlanta, GA 30333, USA"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I2800979572", NA), institution_display_name = c("University of Arizona", "Research Institute for Tropical Medicine", NA), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/01g79at26", NA), institution_country_code = c("US", "PH", NA), institution_type = c("education", "facility", NA), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I2800979572", NA))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rabies is a devastating disease and affects millions of people globally, yet it is preventable with appropriate and timely postexposure prophylaxis (PEP). The current WHO exposure categories (Categories I, II, and III) need revision, with a special Category IV for severe exposures. Rare cases of PEP failure have occurred in severe bites to the head and neck. Multiple factors, including route, wound severity, depth, contamination, viral dose, proximity to highly innervated areas and the CNS, and the number of lesions, remain unconsidered. Injuries in areas of high neural density are the most significant considering lyssavirus pathophysiology. Current recommendations do not account for these factors. A Category IV designation would acknowledge the severity and the increased risk of progression. Subsequently, patient management would be optimized with wound care and the appropriate administration of rabies-immune globulin/monoclonal antibodies (RIG/MAbs). All Category IV exposures would be infiltrated with the full dose of intact RIG (i.e., human RIG or MAbs) if the patient was previously unvaccinated. More concentrated RIG/MAb formulations would be preferred. As a world rabies community, we cannot tolerate PEP failures. A fourth WHO categorization will improve the care of these high-risk patients and highlight the global health urgency of this neglected disease.</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>Viruses</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Viruses</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S55776271</t>
+          <t>https://doi.org/10.3390/v14051111</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1999-4915</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35632852</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3390/v14051111</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/1999-4915/14/5/1111/pdf?version=1653206369</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/1999-4915/14/5/1111/pdf?version=1653206369</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4281250537</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4281250537", doi = "https://doi.org/10.3390/v14051111", pmid = "https://pubmed.ncbi.nlm.nih.gov/35632852")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/v14051111</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1602144318", "https://openalex.org/W1973379805", "https://openalex.org/W2002563971", "https://openalex.org/W2019507030", "https://openalex.org/W2021480332", "https://openalex.org/W2032972474", "https://openalex.org/W2073034493", "https://openalex.org/W2083241885", "https://openalex.org/W2144156715", "https://openalex.org/W2808339545", "https://openalex.org/W2884416117", "https://openalex.org/W2884866830", "https://openalex.org/W2913150602", "https://openalex.org/W2943242705", 
-"https://openalex.org/W3006519304", "https://openalex.org/W3184175624", "https://openalex.org/W3204810297", "https://openalex.org/W3213221703", "https://openalex.org/W4210779118", "https://openalex.org/W4224230475", "https://openalex.org/W4224981390", "https://openalex.org/W4249779128")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2138613308", "https://openalex.org/W2054451627", "https://openalex.org/W4200289888", "https://openalex.org/W2094635665", "https://openalex.org/W3088566151", "https://openalex.org/W4229041706", "https://openalex.org/W2790359184", "https://openalex.org/W2098007606", "https://openalex.org/W2436982195", "https://openalex.org/W4384827330")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Steven J. Hardy, Ryan S. King, Stephen J. Scholand</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226100070</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Yellow Urticaria in a Patient with Liver Disease</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5085423510", "https://openalex.org/A5080846350", "https://openalex.org/A5020243647"), au_display_name = c("Steven J. Hardy", "Ryan S. King", "Stephen J. Scholand"), au_orcid = c("https://orcid.org/0000-0002-0491-4980", "https://orcid.org/0000-0002-3159-9816", "https://orcid.org/0000-0003-1196-6735"), author_position = c("first", "middle", "last"), au_affiliation_raw = c("", "", ""), institution_id = c(NA, NA, NA), institution_display_name = c(NA, NA, NA), institution_ror = c(NA, 
-NA, NA), institution_country_code = c(NA, NA, NA), institution_type = c(NA, NA, NA), institution_lineage = c(NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Background: Yellow urticaria is a rarely reported phenomena that occurs in patients with hyperbilirubinemia that suffer an episode of urticarial rash. A variety of insidious etiologies of hyperbilirubinemia have been reported in cases of yellow urticaria making it an opportunity to catch serious liver or biliary disease early in its course. Case Report: We report a case of yellow urticaria that occurred in a 67-year-old male suffering from end-stage liver disease after he had received a transfusion of fresh frozen plasma. Physical examination and thorough history collection allowed the determination of the proper diagnosis and guided further clinical care. Conclusion: An occurrence of yellow urticaria necessitates that the clinician finds two diagnoses: the cause of hyperbilirubinemia, and the cause of urticaria. While striking in appearance, yellow urticaria may be most clinically significant when it prompts recognition of previously unknown hepatic or biliary pathology.</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>Case Reports in Clinical Medicine</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Case Reports in Clinical Medicine</t>
+          <t>Scientific Research Publishing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2764976403</t>
+          <t>https://doi.org/10.4236/crcm.2022.114016</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Scientific Research Publishing</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2325-7083</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.4236/crcm.2022.114016</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>http://www.scirp.org/journal/PaperDownload.aspx?paperID=116288</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>http://www.scirp.org/journal/PaperDownload.aspx?paperID=116288</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4226100070</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4226100070", doi = "https://doi.org/10.4236/crcm.2022.114016")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4236/crcm.2022.114016</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W108030490", "https://openalex.org/W2339233857", "https://openalex.org/W2513653890", "https://openalex.org/W2624713672", "https://openalex.org/W2627029105", "https://openalex.org/W2750751225", "https://openalex.org/W2755538987", "https://openalex.org/W2810953097", "https://openalex.org/W2916695386", "https://openalex.org/W4233700191")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4206687253", "https://openalex.org/W1654315997", "https://openalex.org/W4386698201", "https://openalex.org/W1995752498", "https://openalex.org/W1995124650", "https://openalex.org/W2795122735", "https://openalex.org/W2417046030", "https://openalex.org/W3029528698", "https://openalex.org/W2597435277", "https://openalex.org/W1976470591")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Stephen Scholand_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Stephen Scholand_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Research Institute for Tropical Medicine, Alabang, Muntinlupa City 1781, Metro Manila, Philippines; LYSSA LLC, Atlanta, GA 30333, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281250537</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Time to Revise the WHO Categories for Severe Rabies Virus Exposures–Category IV?</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-05-22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Viruses</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/v14051111</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35632852</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/v14051111</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226100070</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Yellow Urticaria in a Patient with Liver Disease</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Case Reports in Clinical Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Scientific Research Publishing</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.4236/crcm.2022.114016</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.4236/crcm.2022.114016</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
